--- a/biology/Médecine/Li_Gao/Li_Gao.xlsx
+++ b/biology/Médecine/Li_Gao/Li_Gao.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Li Dongyuan
-Li Gao  李杲 (1180-1251), pseudonyme Lǐ Dōngyuán 李東垣, prénom social Míngzhī 名之, nom littéraire Dongyuan 東垣 (« enceinte de L’Est »), originaire de Zhending 镇定 (actuellement écrit  Zhengding 正定) dans la province du Hebei, est un expert médical durant les dynasties Jin 金 et mongole Yuan 元[1]. Sur ses vieux jours, Lǐ Gǎo se faisait appelé le « vieil homme de Dongyuan » (东垣老人 Dōngyuán lǎorén) parce que son pays natal Zhending s’appelait Royaume de Dongyuan au début des Han[2].
-Dans le domaine de  la médecine chinoise, c’est un des « Quatre Grands Maîtres des dynasties Jin et Yuan »[n 1]. Il a souligné l’importance de la rate et de l’estomac dans le corps humain associés à la terre, élément central[n 2], dans la théorie des cinq phases wuxing 五行, des Correspondances systématiques. C’est pourquoi sa théorie est connue sous le nom de Putu pai 补土派  « École du nourrissage de la terre »[2].
+Li Gao  李杲 (1180-1251), pseudonyme Lǐ Dōngyuán 李東垣, prénom social Míngzhī 名之, nom littéraire Dongyuan 東垣 (« enceinte de L’Est »), originaire de Zhending 镇定 (actuellement écrit  Zhengding 正定) dans la province du Hebei, est un expert médical durant les dynasties Jin 金 et mongole Yuan 元. Sur ses vieux jours, Lǐ Gǎo se faisait appelé le « vieil homme de Dongyuan » (东垣老人 Dōngyuán lǎorén) parce que son pays natal Zhending s’appelait Royaume de Dongyuan au début des Han.
+Dans le domaine de  la médecine chinoise, c’est un des « Quatre Grands Maîtres des dynasties Jin et Yuan »[n 1]. Il a souligné l’importance de la rate et de l’estomac dans le corps humain associés à la terre, élément central[n 2], dans la théorie des cinq phases wuxing 五行, des Correspondances systématiques. C’est pourquoi sa théorie est connue sous le nom de Putu pai 补土派  « École du nourrissage de la terre ».
 </t>
         </is>
       </c>
@@ -513,16 +525,18 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Li Gao est né dans une famille d’érudits, les hommes de la génération de ses parents étaient tous lettrés et avaient des relations étroites avec les personnalités célèbres de l’époque. Lorsqu’il eut vingt ans, sa mère tomba gravement malade et malgré les soins de nombreux médecins, elle mourut. Regrettant amèrement de ne pas connaitre la médecine, il décida de l’étudier.
-Il devient le disciple de Zhang Yuansu  张元素 (ca. 1151-1234), un des médecins de médecine traditionnelle chinoise les plus influents de son époque[1]. Après plusieurs années d’études studieuses, auprès de de son maître, à Yishui 易水, sa réputation finit par dépasser celle de son maître.
-Lorsqu'un patient venait le voir, il commençait toujours par lui prendre le pouls, posait un diagnostic, puis citait les écrits médicaux, les analysait et les comparait pour prouver que son diagnostic était correct, et ce n'est qu'une fois le patient convaincu qu'il prenait le pinceau pour rédiger une ordonnance[2].
-L’apport de Li Gao (et de son maitre Zhang Yuansu) à la médecine chinoise, a été d’expliquer le choix de son remède par des principes naturalistes qui gouvernent l’organisation du corps humain: des notions d’anatomie (les organes et entrailles, les conduits ou méridiens) et des flux de qi, sang et fluides par ces conduits. Le choix des herbes médicinales se fait en fonction de l’action thérapeutique cherchée: tonifier le corps contre les carences en qi, en sang, ou en yin, ou en yang, ou tonifier les organes contre diverses déficiences, par exemple[3]. Cette approche qui parait parfaitement naturelle ne fut pourtant pas pratiquée dans les pharmacopées (bencao) du premier millénaire.
+Il devient le disciple de Zhang Yuansu  张元素 (ca. 1151-1234), un des médecins de médecine traditionnelle chinoise les plus influents de son époque. Après plusieurs années d’études studieuses, auprès de de son maître, à Yishui 易水, sa réputation finit par dépasser celle de son maître.
+Lorsqu'un patient venait le voir, il commençait toujours par lui prendre le pouls, posait un diagnostic, puis citait les écrits médicaux, les analysait et les comparait pour prouver que son diagnostic était correct, et ce n'est qu'une fois le patient convaincu qu'il prenait le pinceau pour rédiger une ordonnance.
+L’apport de Li Gao (et de son maitre Zhang Yuansu) à la médecine chinoise, a été d’expliquer le choix de son remède par des principes naturalistes qui gouvernent l’organisation du corps humain: des notions d’anatomie (les organes et entrailles, les conduits ou méridiens) et des flux de qi, sang et fluides par ces conduits. Le choix des herbes médicinales se fait en fonction de l’action thérapeutique cherchée: tonifier le corps contre les carences en qi, en sang, ou en yin, ou en yang, ou tonifier les organes contre diverses déficiences, par exemple. Cette approche qui parait parfaitement naturelle ne fut pourtant pas pratiquée dans les pharmacopées (bencao) du premier millénaire.
 La riche histoire de la pharmacopée chinoise, avec la publication régulière d’ouvrage de matières médicales, s’enrichissant en informations nouvelles au cours des siècles, s’est développée indépendamment de la médecine chinoise. Cette dernière a commencé avec un système conceptuel exposé dans le corpus du Huangdi Nei Jing 黄帝内经, y compris, le Suwen 素问 et le Lingsu 灵枢 et le Nanjing 南经 qui ont fondé la thérapie par les aiguilles, ou acupuncture. Pendant plus d’un millénaire, de la dynastie Han à la dynastie Song, les deux approches médicales, se sont développées en parallèle, avec pratiquement aucune reconnaissance mutuelle.
 Ce n’est qu’à partir du début du XIIe siècle, que des auteurs comme Kou Zongshi 寇宗奭 puis Wang Haogu 王好古 ont ouvert la voie à l’introduction du concept des correspondances systématiques venant du Huangdi neijing (principalement des chap. 4, 5, 10  du Suwen et chap.11 du Lingshu), dans la pharmacopée des matières médicales. Li Gao à la suite de son maitre a adopté cet appareil conceptuel permettant d’offrir des « explications naturalistes ».
 Au XVIe siècle, Li Shizhen cite abondamment Li Gao, comme à propos de cangzhu (le rhizome d’Atractylodes lancea) :
-« Le Bencao parle seulement de zhu 朮, il ne distingue pas cang 蒼 et bai 白. Le cangzhu 蒼朮 possède un qi ascendant vigoureux qui peut éliminer l’humidité [en haut]. En dessous, il sert à pacifier la région du yin majeur (太阴 taiyin) et il empêche le qi maléfique de pénétrer dans la rate. Une fois qu’il a trempé dans l’eau dans laquelle du riz a été lavé et qu’il a été rôti sur le feu, il peut stimuler la transpiration alors que baizhu est particulièrement bon à faire cesser la transpiration. C’est-à-dire que pour les applications [thérapeutiques], un des deux ne peut se substituer à l’autre »[4].
+« Le Bencao parle seulement de zhu 朮, il ne distingue pas cang 蒼 et bai 白. Le cangzhu 蒼朮 possède un qi ascendant vigoureux qui peut éliminer l’humidité [en haut]. En dessous, il sert à pacifier la région du yin majeur (太阴 taiyin) et il empêche le qi maléfique de pénétrer dans la rate. Une fois qu’il a trempé dans l’eau dans laquelle du riz a été lavé et qu’il a été rôti sur le feu, il peut stimuler la transpiration alors que baizhu est particulièrement bon à faire cesser la transpiration. C’est-à-dire que pour les applications [thérapeutiques], un des deux ne peut se substituer à l’autre ».
 Li Gao établit un mécanisme d’action du remède cangzhu, permettant d’expliquer les divers effets thérapeutiques de la drogue.
 Le cangzhu agit sur le conduit de la rate taiyin de pied Zú tàiyīn pí jīng 足太阴脾经 qui part du gros orteil, remonte le long de la face interne de la jambe, traverse la cavité abdominale puis entre dans la rate. La rate, en relation avec la terre, reçoit facilement les excès d’humidité du corps. Elle aime la sécheresse et craint l’humidité. Les correspondances rate ↔ terre ↔ humidité viennent de la théorie des correspondances wuxing.
 </t>
@@ -553,18 +567,20 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son ouvrage principal est le
-Nei wai shang bian huo lun 內外傷辨惑论 « Discours rectifiant les points confus sur les dommages internes et externes » (1232), en abréviation Bian huo lun 辨 惑论. Livre de médecine interne qui explique la différenciation et le traitement de signes de maladies provoquées par des dommages qui se manifestent comme des contractions d’influences pathogènes externes[1].
+Nei wai shang bian huo lun 內外傷辨惑论 « Discours rectifiant les points confus sur les dommages internes et externes » (1232), en abréviation Bian huo lun 辨 惑论. Livre de médecine interne qui explique la différenciation et le traitement de signes de maladies provoquées par des dommages qui se manifestent comme des contractions d’influences pathogènes externes.
 Huo fa ji yao 活法機要 « Points cruciaux de la Moi de la vie » (sous les Yuan)
 Pi wei lun 脾胃论 « Discours sur la rate et l’estomac » (c. 1249). Ouvrage de médecine interne. Il insiste sur la différences entre les maladies contractées à l’extérieur et celles venant de dommages internes, en s’étendant particulièrement sur les fonction de la rate et de l’estomac. Il traite les syndromes de fièvre venant de dommages internes par des drogues à saveur douce et de nature chaude et augmente le yang qi par des herbes vent
 Yi xue fa ming 医学发明 « Élucidations d’études médicales » (c. 1251)
 Lan shi mi cang 兰室秘藏 « Trésors secrets de la salle à Orchidées » (c.1251), texte clinique. Le titre est une référence à une salle à Orchidées où des textes médicaux précieux sont entreposés selon le Huangdi neijing Suwen (chapitre 8 du Suwen). La « salle des Orchidées »  peut être interprétée comme un espace sacré pour la sauvegarde et la transmission d'une sagesse précieuse. Dans la culture chinoise, les orchidées sont souvent associées à la pureté, à l'élégance et à la recherche scientifique. L’œuvre est divisée en 21 chapitres traitant des maladies associes à la rate et à l’estomac. Elle traite de beaucoup de nouvelles recettes, composées avec soin selon les principes des interactions entre drogues
-Yong yao fa xiang 用药法象 « L’usage des drogues pharmaceutiques reflété dans la loi (des Correspondances systématiques) ». Attribué à Li Gao. Date de composition incertaine. Le titre n’a été trouvé dans aucune bibliographie ni aucun texte pharmaceutique[1].
+Yong yao fa xiang 用药法象 « L’usage des drogues pharmaceutiques reflété dans la loi (des Correspondances systématiques) ». Attribué à Li Gao. Date de composition incertaine. Le titre n’a été trouvé dans aucune bibliographie ni aucun texte pharmaceutique.
 Ainsi que d’autres ouvrages.
-Li Shizhen avait une haute idée de Zhang Yuansu et de Li Gao. Il cite d’ailleurs ce dernier 290 fois dans Bencao Gangmu, sous ses différents noms: Li Gao, Gao, Li Dongyuan, Dongyuan, Li Mingzhi, Mingzhi ou Li shi 李氏 « M. Li »[1].
-Selon L’Encyclopédie des quatre Trésors – Catalogue général (《四库全书·总目提要》Sì kù quánshū·zǒng mù tíyào), une des plus vastes collections de littérature chinoise, commandée par l'Empereur Qianlong de la dynastie Qing au XVIIIe siècle, il est affirmé que « l’École de Hejian (河间学派) et l’École de Yishui (易水学派) sont les deux écoles de médecine les plus influentes de l’histoire de la médecine. Li Gao fut un savant important de l’École Yishui. Zhu Danxi, bien qu'il soit un disciple de troisième génération de l'école Hejian, s'est également inspiré des enseignements de Li Gao à certains égards »[2].
+Li Shizhen avait une haute idée de Zhang Yuansu et de Li Gao. Il cite d’ailleurs ce dernier 290 fois dans Bencao Gangmu, sous ses différents noms: Li Gao, Gao, Li Dongyuan, Dongyuan, Li Mingzhi, Mingzhi ou Li shi 李氏 « M. Li ».
+Selon L’Encyclopédie des quatre Trésors – Catalogue général (《四库全书·总目提要》Sì kù quánshū·zǒng mù tíyào), une des plus vastes collections de littérature chinoise, commandée par l'Empereur Qianlong de la dynastie Qing au XVIIIe siècle, il est affirmé que « l’École de Hejian (河间学派) et l’École de Yishui (易水学派) sont les deux écoles de médecine les plus influentes de l’histoire de la médecine. Li Gao fut un savant important de l’École Yishui. Zhu Danxi, bien qu'il soit un disciple de troisième génération de l'école Hejian, s'est également inspiré des enseignements de Li Gao à certains égards ».
 </t>
         </is>
       </c>
